--- a/COVIDPPP/zip_table.xlsx
+++ b/COVIDPPP/zip_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Justin\Gov50\pppdata\COVIDPPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B32262D-BD28-4987-8DA1-EAA56F83E9A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6923AA53-CC32-40CA-8E5E-ECB1D047608F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2AB6B7C7-F0F5-4EB5-A4BE-986410258A95}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="463">
   <si>
     <t>Model 1</t>
   </si>
@@ -58,12 +58,6 @@
     <t>median_family_income</t>
   </si>
   <si>
-    <t>black_percent</t>
-  </si>
-  <si>
-    <t>white_percent</t>
-  </si>
-  <si>
     <t>high_school_pct</t>
   </si>
   <si>
@@ -148,339 +142,42 @@
     <t>non_essential_closure_current</t>
   </si>
   <si>
-    <t>black_percent^2</t>
-  </si>
-  <si>
-    <t>white_percent^2</t>
-  </si>
-  <si>
-    <t>black_percent * median_family_income</t>
-  </si>
-  <si>
-    <t>black_percent * cook_pvi</t>
-  </si>
-  <si>
-    <t>black_percent * rural</t>
-  </si>
-  <si>
-    <t>black_percent * estimate_gini_index</t>
-  </si>
-  <si>
-    <t>black_percent * violent_crime_rate</t>
-  </si>
-  <si>
     <t>0.004</t>
   </si>
   <si>
     <t>Regressor</t>
   </si>
   <si>
-    <t>50.143***</t>
-  </si>
-  <si>
-    <t>54.357***</t>
-  </si>
-  <si>
-    <t>62.624***</t>
-  </si>
-  <si>
-    <t>53.388***</t>
-  </si>
-  <si>
-    <t>47.642***</t>
-  </si>
-  <si>
-    <t>-0.020***</t>
-  </si>
-  <si>
-    <t>-0.011*</t>
-  </si>
-  <si>
-    <t>-0.022***</t>
-  </si>
-  <si>
     <t>-0.025***</t>
   </si>
   <si>
-    <t>0.056***</t>
-  </si>
-  <si>
-    <t>0.104***</t>
-  </si>
-  <si>
     <t>-0.066***</t>
   </si>
   <si>
-    <t>-0.184***</t>
-  </si>
-  <si>
-    <t>-0.129***</t>
-  </si>
-  <si>
-    <t>-0.073***</t>
-  </si>
-  <si>
-    <t>-0.179***</t>
-  </si>
-  <si>
-    <t>-0.171***</t>
-  </si>
-  <si>
-    <t>-0.077***</t>
-  </si>
-  <si>
-    <t>-0.049**</t>
-  </si>
-  <si>
-    <t>0.035*</t>
-  </si>
-  <si>
-    <t>0.114***</t>
-  </si>
-  <si>
-    <t>0.095***</t>
-  </si>
-  <si>
-    <t>-0.078***</t>
-  </si>
-  <si>
-    <t>-0.199***</t>
-  </si>
-  <si>
-    <t>-0.149***</t>
-  </si>
-  <si>
-    <t>-0.173***</t>
-  </si>
-  <si>
-    <t>-1.987***</t>
-  </si>
-  <si>
-    <t>-1.981***</t>
-  </si>
-  <si>
-    <t>-3.188***</t>
-  </si>
-  <si>
-    <t>-1.854***</t>
-  </si>
-  <si>
-    <t>-1.925***</t>
-  </si>
-  <si>
-    <t>-6.191***</t>
-  </si>
-  <si>
-    <t>-6.353***</t>
-  </si>
-  <si>
-    <t>5.774*</t>
-  </si>
-  <si>
-    <t>8.255*</t>
-  </si>
-  <si>
-    <t>0.007**</t>
-  </si>
-  <si>
-    <t>0.037***</t>
-  </si>
-  <si>
-    <t>-0.030***</t>
-  </si>
-  <si>
-    <t>-0.040***</t>
-  </si>
-  <si>
-    <t>-12.118***</t>
-  </si>
-  <si>
-    <t>-8.593***</t>
-  </si>
-  <si>
-    <t>-3.405***</t>
-  </si>
-  <si>
-    <t>-3.382***</t>
-  </si>
-  <si>
-    <t>-12.952***</t>
-  </si>
-  <si>
-    <t>-8.973***</t>
-  </si>
-  <si>
-    <t>-3.925***</t>
-  </si>
-  <si>
-    <t>-3.909***</t>
-  </si>
-  <si>
-    <t>-8.971***</t>
-  </si>
-  <si>
-    <t>-6.064***</t>
-  </si>
-  <si>
-    <t>-3.012***</t>
-  </si>
-  <si>
-    <t>-2.988***</t>
-  </si>
-  <si>
-    <t>-0.564*</t>
-  </si>
-  <si>
-    <t>-0.555*</t>
-  </si>
-  <si>
-    <t>14.610***</t>
-  </si>
-  <si>
-    <t>10.459***</t>
-  </si>
-  <si>
-    <t>4.009***</t>
-  </si>
-  <si>
-    <t>4.050***</t>
-  </si>
-  <si>
-    <t>-15.877***</t>
-  </si>
-  <si>
-    <t>-9.951***</t>
-  </si>
-  <si>
-    <t>-2.962***</t>
-  </si>
-  <si>
-    <t>-2.812***</t>
-  </si>
-  <si>
-    <t>-13.817***</t>
-  </si>
-  <si>
-    <t>-10.439***</t>
-  </si>
-  <si>
-    <t>-4.137***</t>
-  </si>
-  <si>
-    <t>-4.022***</t>
-  </si>
-  <si>
     <t>0.028***</t>
   </si>
   <si>
     <t>0.018***</t>
   </si>
   <si>
-    <t>0.010***</t>
-  </si>
-  <si>
     <t>-0.093***</t>
   </si>
   <si>
-    <t>-0.028***</t>
-  </si>
-  <si>
-    <t>-0.146*</t>
-  </si>
-  <si>
-    <t>-0.153*</t>
-  </si>
-  <si>
     <t>-0.001***</t>
   </si>
   <si>
-    <t>6.118***</t>
-  </si>
-  <si>
-    <t>3.158***</t>
-  </si>
-  <si>
-    <t>3.138***</t>
-  </si>
-  <si>
-    <t>-7.130***</t>
-  </si>
-  <si>
-    <t>-3.700***</t>
-  </si>
-  <si>
-    <t>-3.698***</t>
-  </si>
-  <si>
-    <t>-0.424***</t>
-  </si>
-  <si>
-    <t>-0.423***</t>
-  </si>
-  <si>
-    <t>0.211***</t>
-  </si>
-  <si>
     <t>0.212***</t>
   </si>
   <si>
-    <t>-0.738***</t>
-  </si>
-  <si>
-    <t>-0.731***</t>
-  </si>
-  <si>
-    <t>2.724***</t>
-  </si>
-  <si>
-    <t>2.763***</t>
-  </si>
-  <si>
-    <t>-4.737***</t>
-  </si>
-  <si>
     <t>-4.816***</t>
   </si>
   <si>
-    <t>14.476***</t>
-  </si>
-  <si>
-    <t>14.627***</t>
-  </si>
-  <si>
-    <t>-23.124***</t>
-  </si>
-  <si>
-    <t>-23.121***</t>
-  </si>
-  <si>
-    <t>0.003***</t>
-  </si>
-  <si>
-    <t>0.002***</t>
-  </si>
-  <si>
-    <t>-0.443***</t>
-  </si>
-  <si>
     <t>0.001***</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>(1.373)</t>
-  </si>
-  <si>
-    <t>(1.044)</t>
-  </si>
-  <si>
-    <t>(2.015)</t>
-  </si>
-  <si>
-    <t>(2.121)</t>
-  </si>
-  <si>
     <t>(2.607)</t>
   </si>
   <si>
@@ -499,189 +196,51 @@
     <t>(0.007)</t>
   </si>
   <si>
-    <t>-0.100</t>
-  </si>
-  <si>
     <t>(0.012)</t>
   </si>
   <si>
     <t>(0.009)</t>
   </si>
   <si>
-    <t>(0.013)</t>
-  </si>
-  <si>
-    <t>(0.011)</t>
-  </si>
-  <si>
-    <t>(0.075)</t>
-  </si>
-  <si>
-    <t>-0.009</t>
-  </si>
-  <si>
     <t>(0.008)</t>
   </si>
   <si>
     <t>(0.010)</t>
   </si>
   <si>
-    <t>(0.038)</t>
-  </si>
-  <si>
     <t>0.025</t>
   </si>
   <si>
     <t>(0.015)</t>
   </si>
   <si>
-    <t>0.005</t>
-  </si>
-  <si>
     <t>0.012</t>
   </si>
   <si>
     <t>(0.017)</t>
   </si>
   <si>
-    <t>(0.214)</t>
-  </si>
-  <si>
-    <t>(0.186)</t>
-  </si>
-  <si>
-    <t>(0.262)</t>
-  </si>
-  <si>
-    <t>(0.304)</t>
-  </si>
-  <si>
-    <t>(0.379)</t>
-  </si>
-  <si>
-    <t>4.374</t>
-  </si>
-  <si>
-    <t>(1.813)</t>
-  </si>
-  <si>
-    <t>(1.330)</t>
-  </si>
-  <si>
-    <t>(2.477)</t>
-  </si>
-  <si>
     <t>(2.690)</t>
   </si>
   <si>
-    <t>(3.309)</t>
-  </si>
-  <si>
     <t>-0.000</t>
   </si>
   <si>
     <t>(0.002)</t>
   </si>
   <si>
-    <t>(0.076)</t>
-  </si>
-  <si>
-    <t>(0.092)</t>
-  </si>
-  <si>
-    <t>(0.148)</t>
-  </si>
-  <si>
-    <t>(0.147)</t>
-  </si>
-  <si>
-    <t>(0.114)</t>
-  </si>
-  <si>
-    <t>(0.119)</t>
-  </si>
-  <si>
-    <t>(0.167)</t>
-  </si>
-  <si>
-    <t>(0.165)</t>
-  </si>
-  <si>
     <t>(0.211)</t>
   </si>
   <si>
-    <t>(0.183)</t>
-  </si>
-  <si>
-    <t>(0.187)</t>
-  </si>
-  <si>
-    <t>(0.185)</t>
-  </si>
-  <si>
-    <t>-0.607</t>
-  </si>
-  <si>
-    <t>-0.386</t>
-  </si>
-  <si>
-    <t>(0.383)</t>
-  </si>
-  <si>
-    <t>(0.312)</t>
-  </si>
-  <si>
-    <t>(0.253)</t>
-  </si>
-  <si>
-    <t>(0.252)</t>
-  </si>
-  <si>
-    <t>(0.757)</t>
-  </si>
-  <si>
-    <t>(0.604)</t>
-  </si>
-  <si>
-    <t>(0.409)</t>
-  </si>
-  <si>
-    <t>(0.246)</t>
-  </si>
-  <si>
-    <t>(0.260)</t>
-  </si>
-  <si>
-    <t>(0.236)</t>
-  </si>
-  <si>
-    <t>(0.229)</t>
-  </si>
-  <si>
-    <t>(0.204)</t>
-  </si>
-  <si>
-    <t>(0.182)</t>
-  </si>
-  <si>
     <t>(0.168)</t>
   </si>
   <si>
-    <t>(0.163)</t>
-  </si>
-  <si>
     <t>(0.000)</t>
   </si>
   <si>
     <t>(0.001)</t>
   </si>
   <si>
-    <t>-0.096</t>
-  </si>
-  <si>
-    <t>(0.060)</t>
-  </si>
-  <si>
     <t>(0.070)</t>
   </si>
   <si>
@@ -691,78 +250,27 @@
     <t>-0.018</t>
   </si>
   <si>
-    <t>0.022</t>
-  </si>
-  <si>
-    <t>0.026</t>
-  </si>
-  <si>
     <t>(0.028)</t>
   </si>
   <si>
-    <t>(0.034)</t>
-  </si>
-  <si>
-    <t>(0.109)</t>
-  </si>
-  <si>
     <t>(0.078)</t>
   </si>
   <si>
-    <t>(0.099)</t>
-  </si>
-  <si>
-    <t>(0.083)</t>
-  </si>
-  <si>
-    <t>(0.120)</t>
-  </si>
-  <si>
-    <t>-3.711</t>
-  </si>
-  <si>
-    <t>-3.973</t>
-  </si>
-  <si>
-    <t>(2.147)</t>
-  </si>
-  <si>
-    <t>(2.140)</t>
-  </si>
-  <si>
     <t>(0.018)</t>
   </si>
   <si>
     <t>(0.325)</t>
   </si>
   <si>
-    <t>(0.329)</t>
-  </si>
-  <si>
     <t>(0.424)</t>
   </si>
   <si>
-    <t>(0.882)</t>
-  </si>
-  <si>
-    <t>(0.907)</t>
-  </si>
-  <si>
-    <t>(0.540)</t>
-  </si>
-  <si>
-    <t>(0.536)</t>
-  </si>
-  <si>
     <t>0.002</t>
   </si>
   <si>
     <t>(0.021)</t>
   </si>
   <si>
-    <t>(0.125)</t>
-  </si>
-  <si>
     <t>0.123</t>
   </si>
   <si>
@@ -778,156 +286,27 @@
     <t>2061489</t>
   </si>
   <si>
-    <t>62.221***</t>
-  </si>
-  <si>
-    <t>57.137***</t>
-  </si>
-  <si>
-    <t>61.585***</t>
-  </si>
-  <si>
-    <t>75.243***</t>
-  </si>
-  <si>
-    <t>63.275***</t>
-  </si>
-  <si>
-    <t>(2.538)</t>
-  </si>
-  <si>
-    <t>(2.077)</t>
-  </si>
-  <si>
-    <t>(3.673)</t>
-  </si>
-  <si>
-    <t>(4.264)</t>
-  </si>
-  <si>
-    <t>(6.137)</t>
-  </si>
-  <si>
     <t>median_income</t>
   </si>
   <si>
-    <t>-0.032***</t>
-  </si>
-  <si>
-    <t>-0.020**</t>
-  </si>
-  <si>
-    <t>-0.110***</t>
-  </si>
-  <si>
-    <t>-0.036*</t>
-  </si>
-  <si>
     <t>(0.014)</t>
   </si>
   <si>
-    <t>0.016</t>
-  </si>
-  <si>
-    <t>-0.094***</t>
-  </si>
-  <si>
-    <t>-0.371***</t>
-  </si>
-  <si>
-    <t>2.215***</t>
-  </si>
-  <si>
     <t>(0.019)</t>
   </si>
   <si>
     <t>(0.242)</t>
   </si>
   <si>
-    <t>-0.245***</t>
-  </si>
-  <si>
-    <t>-0.155***</t>
-  </si>
-  <si>
-    <t>-0.233***</t>
-  </si>
-  <si>
-    <t>-0.289***</t>
-  </si>
-  <si>
-    <t>-0.206*</t>
-  </si>
-  <si>
-    <t>-0.203***</t>
-  </si>
-  <si>
-    <t>-0.135***</t>
-  </si>
-  <si>
-    <t>-0.041</t>
-  </si>
-  <si>
-    <t>0.046</t>
-  </si>
-  <si>
-    <t>0.009</t>
-  </si>
-  <si>
     <t>(0.023)</t>
   </si>
   <si>
-    <t>(0.030)</t>
-  </si>
-  <si>
-    <t>0.136***</t>
-  </si>
-  <si>
-    <t>0.099***</t>
-  </si>
-  <si>
-    <t>0.147***</t>
-  </si>
-  <si>
-    <t>-0.267***</t>
-  </si>
-  <si>
-    <t>-0.262***</t>
-  </si>
-  <si>
     <t>(0.032)</t>
   </si>
   <si>
-    <t>(0.026)</t>
-  </si>
-  <si>
-    <t>(0.039)</t>
-  </si>
-  <si>
-    <t>(0.041)</t>
-  </si>
-  <si>
-    <t>(0.042)</t>
-  </si>
-  <si>
     <t>republican_percent</t>
   </si>
   <si>
-    <t>-0.053***</t>
-  </si>
-  <si>
-    <t>-0.005</t>
-  </si>
-  <si>
-    <t>-0.113***</t>
-  </si>
-  <si>
-    <t>-0.072***</t>
-  </si>
-  <si>
-    <t>0.023</t>
-  </si>
-  <si>
     <t>(0.016)</t>
   </si>
   <si>
@@ -937,213 +316,27 @@
     <t>0.003</t>
   </si>
   <si>
-    <t>0.026***</t>
-  </si>
-  <si>
     <t>-0.003</t>
   </si>
   <si>
-    <t>0.017**</t>
-  </si>
-  <si>
-    <t>17.452***</t>
-  </si>
-  <si>
-    <t>13.972***</t>
-  </si>
-  <si>
-    <t>43.954***</t>
-  </si>
-  <si>
-    <t>31.168***</t>
-  </si>
-  <si>
-    <t>55.621***</t>
-  </si>
-  <si>
-    <t>(3.208)</t>
-  </si>
-  <si>
-    <t>(2.585)</t>
-  </si>
-  <si>
-    <t>(4.631)</t>
-  </si>
-  <si>
-    <t>(5.018)</t>
-  </si>
-  <si>
-    <t>(6.061)</t>
-  </si>
-  <si>
-    <t>-0.013*</t>
-  </si>
-  <si>
     <t>-0.001</t>
   </si>
   <si>
     <t>-0.044***</t>
   </si>
   <si>
-    <t>-0.051***</t>
-  </si>
-  <si>
     <t>-12.132***</t>
   </si>
   <si>
-    <t>-8.445***</t>
-  </si>
-  <si>
-    <t>-4.166***</t>
-  </si>
-  <si>
-    <t>-4.158***</t>
-  </si>
-  <si>
-    <t>(0.093)</t>
-  </si>
-  <si>
-    <t>(0.066)</t>
-  </si>
-  <si>
-    <t>(0.065)</t>
-  </si>
-  <si>
-    <t>-12.914***</t>
-  </si>
-  <si>
-    <t>-8.862***</t>
-  </si>
-  <si>
-    <t>-4.722***</t>
-  </si>
-  <si>
-    <t>-4.731***</t>
-  </si>
-  <si>
-    <t>(0.110)</t>
-  </si>
-  <si>
     <t>(0.121)</t>
   </si>
   <si>
-    <t>(0.089)</t>
-  </si>
-  <si>
-    <t>(0.088)</t>
-  </si>
-  <si>
-    <t>-9.010***</t>
-  </si>
-  <si>
-    <t>-6.136***</t>
-  </si>
-  <si>
-    <t>-3.608***</t>
-  </si>
-  <si>
-    <t>-3.658***</t>
-  </si>
-  <si>
-    <t>(0.205)</t>
-  </si>
-  <si>
     <t>(0.138)</t>
   </si>
   <si>
-    <t>-0.818*</t>
-  </si>
-  <si>
-    <t>-0.725*</t>
-  </si>
-  <si>
-    <t>-0.822***</t>
-  </si>
-  <si>
-    <t>-0.887***</t>
-  </si>
-  <si>
-    <t>(0.376)</t>
-  </si>
-  <si>
-    <t>(0.318)</t>
-  </si>
-  <si>
-    <t>(0.225)</t>
-  </si>
-  <si>
-    <t>(0.223)</t>
-  </si>
-  <si>
-    <t>13.797***</t>
-  </si>
-  <si>
-    <t>9.422***</t>
-  </si>
-  <si>
-    <t>4.456***</t>
-  </si>
-  <si>
-    <t>4.250***</t>
-  </si>
-  <si>
-    <t>(0.736)</t>
-  </si>
-  <si>
-    <t>(0.591)</t>
-  </si>
-  <si>
-    <t>(0.422)</t>
-  </si>
-  <si>
-    <t>(0.423)</t>
-  </si>
-  <si>
-    <t>-16.147***</t>
-  </si>
-  <si>
-    <t>-8.866***</t>
-  </si>
-  <si>
-    <t>-3.102***</t>
-  </si>
-  <si>
-    <t>-3.109***</t>
-  </si>
-  <si>
-    <t>(0.257)</t>
-  </si>
-  <si>
-    <t>(0.269)</t>
-  </si>
-  <si>
-    <t>(0.240)</t>
-  </si>
-  <si>
-    <t>(0.238)</t>
-  </si>
-  <si>
-    <t>-13.877***</t>
-  </si>
-  <si>
-    <t>-10.060***</t>
-  </si>
-  <si>
-    <t>-5.160***</t>
-  </si>
-  <si>
-    <t>-5.111***</t>
-  </si>
-  <si>
-    <t>(0.220)</t>
-  </si>
-  <si>
     <t>(0.179)</t>
   </si>
   <si>
-    <t>(0.116)</t>
-  </si>
-  <si>
     <t>0.027***</t>
   </si>
   <si>
@@ -1162,199 +355,31 @@
     <t>-0.033***</t>
   </si>
   <si>
-    <t>-2.595***</t>
-  </si>
-  <si>
-    <t>-1.499***</t>
-  </si>
-  <si>
-    <t>-1.370***</t>
-  </si>
-  <si>
-    <t>(0.166)</t>
-  </si>
-  <si>
-    <t>(0.139)</t>
-  </si>
-  <si>
-    <t>(0.145)</t>
-  </si>
-  <si>
-    <t>-0.607*</t>
-  </si>
-  <si>
-    <t>-0.470</t>
-  </si>
-  <si>
-    <t>-0.328</t>
-  </si>
-  <si>
     <t>(0.261)</t>
   </si>
   <si>
-    <t>(0.275)</t>
-  </si>
-  <si>
-    <t>(0.271)</t>
-  </si>
-  <si>
     <t>gdp</t>
   </si>
   <si>
     <t>0.000***</t>
   </si>
   <si>
-    <t>6.295***</t>
-  </si>
-  <si>
-    <t>3.979***</t>
-  </si>
-  <si>
-    <t>4.012***</t>
-  </si>
-  <si>
-    <t>(0.104)</t>
-  </si>
-  <si>
-    <t>(0.080)</t>
-  </si>
-  <si>
     <t>unemployment_rate_percent</t>
   </si>
   <si>
-    <t>-7.504***</t>
-  </si>
-  <si>
-    <t>-4.815***</t>
-  </si>
-  <si>
-    <t>-4.888***</t>
-  </si>
-  <si>
-    <t>(0.105)</t>
-  </si>
-  <si>
-    <t>(0.087)</t>
-  </si>
-  <si>
-    <t>(0.085)</t>
-  </si>
-  <si>
     <t>mean_start_cases</t>
   </si>
   <si>
-    <t>-0.115***</t>
-  </si>
-  <si>
     <t>mean_start_deaths</t>
   </si>
   <si>
-    <t>-3.633***</t>
-  </si>
-  <si>
-    <t>-3.751***</t>
-  </si>
-  <si>
-    <t>(0.787)</t>
-  </si>
-  <si>
-    <t>(0.771)</t>
-  </si>
-  <si>
     <t>mean_end_cases</t>
   </si>
   <si>
-    <t>0.022***</t>
-  </si>
-  <si>
-    <t>0.017***</t>
-  </si>
-  <si>
     <t>mean_end_deaths</t>
   </si>
   <si>
-    <t>0.585***</t>
-  </si>
-  <si>
-    <t>0.597***</t>
-  </si>
-  <si>
-    <t>(0.059)</t>
-  </si>
-  <si>
     <t>(0.058)</t>
-  </si>
-  <si>
-    <t>2.481***</t>
-  </si>
-  <si>
-    <t>1.825***</t>
-  </si>
-  <si>
-    <t>(0.366)</t>
-  </si>
-  <si>
-    <t>-6.670***</t>
-  </si>
-  <si>
-    <t>-6.617***</t>
-  </si>
-  <si>
-    <t>(0.382)</t>
-  </si>
-  <si>
-    <t>(0.378)</t>
-  </si>
-  <si>
-    <t>18.300***</t>
-  </si>
-  <si>
-    <t>18.115***</t>
-  </si>
-  <si>
-    <t>(0.922)</t>
-  </si>
-  <si>
-    <t>(0.865)</t>
-  </si>
-  <si>
-    <t>-27.288***</t>
-  </si>
-  <si>
-    <t>-27.418***</t>
-  </si>
-  <si>
-    <t>(0.324)</t>
-  </si>
-  <si>
-    <t>-0.012***</t>
-  </si>
-  <si>
-    <t>black_percent * median_income</t>
-  </si>
-  <si>
-    <t>-0.009***</t>
-  </si>
-  <si>
-    <t>black_percent * republican_percent</t>
-  </si>
-  <si>
-    <t>-0.013***</t>
-  </si>
-  <si>
-    <t>black_percent * pop_den</t>
-  </si>
-  <si>
-    <t>-0.003***</t>
-  </si>
-  <si>
-    <t>-2.639***</t>
-  </si>
-  <si>
-    <t>(0.351)</t>
-  </si>
-  <si>
-    <t>0.004***</t>
   </si>
   <si>
     <t>0.019</t>
@@ -1414,6 +439,1017 @@
       </rPr>
       <t>2</t>
     </r>
+  </si>
+  <si>
+    <t>35.992***</t>
+  </si>
+  <si>
+    <t>44.887***</t>
+  </si>
+  <si>
+    <t>45.721***</t>
+  </si>
+  <si>
+    <t>39.105***</t>
+  </si>
+  <si>
+    <t>38.087***</t>
+  </si>
+  <si>
+    <t>(1.569)</t>
+  </si>
+  <si>
+    <t>(1.241)</t>
+  </si>
+  <si>
+    <t>(2.084)</t>
+  </si>
+  <si>
+    <t>(2.145)</t>
+  </si>
+  <si>
+    <t>-0.029***</t>
+  </si>
+  <si>
+    <t>-0.007</t>
+  </si>
+  <si>
+    <t>-0.008</t>
+  </si>
+  <si>
+    <t>-0.025**</t>
+  </si>
+  <si>
+    <t>minority_percent</t>
+  </si>
+  <si>
+    <t>0.162***</t>
+  </si>
+  <si>
+    <t>0.135***</t>
+  </si>
+  <si>
+    <t>0.140***</t>
+  </si>
+  <si>
+    <t>0.061***</t>
+  </si>
+  <si>
+    <t>0.112*</t>
+  </si>
+  <si>
+    <t>(0.053)</t>
+  </si>
+  <si>
+    <t>-0.054***</t>
+  </si>
+  <si>
+    <t>-0.032**</t>
+  </si>
+  <si>
+    <t>-0.075***</t>
+  </si>
+  <si>
+    <t>-0.045**</t>
+  </si>
+  <si>
+    <t>0.098***</t>
+  </si>
+  <si>
+    <t>0.066***</t>
+  </si>
+  <si>
+    <t>0.076***</t>
+  </si>
+  <si>
+    <t>0.059***</t>
+  </si>
+  <si>
+    <t>0.050**</t>
+  </si>
+  <si>
+    <t>-0.121***</t>
+  </si>
+  <si>
+    <t>-0.064***</t>
+  </si>
+  <si>
+    <t>-0.206***</t>
+  </si>
+  <si>
+    <t>-0.170***</t>
+  </si>
+  <si>
+    <t>-0.153***</t>
+  </si>
+  <si>
+    <t>-1.926***</t>
+  </si>
+  <si>
+    <t>-1.887***</t>
+  </si>
+  <si>
+    <t>-3.238***</t>
+  </si>
+  <si>
+    <t>-2.038***</t>
+  </si>
+  <si>
+    <t>-2.245***</t>
+  </si>
+  <si>
+    <t>(0.215)</t>
+  </si>
+  <si>
+    <t>(0.188)</t>
+  </si>
+  <si>
+    <t>(0.308)</t>
+  </si>
+  <si>
+    <t>(0.454)</t>
+  </si>
+  <si>
+    <t>-5.947**</t>
+  </si>
+  <si>
+    <t>-5.914***</t>
+  </si>
+  <si>
+    <t>5.202*</t>
+  </si>
+  <si>
+    <t>2.969</t>
+  </si>
+  <si>
+    <t>9.104*</t>
+  </si>
+  <si>
+    <t>(1.841)</t>
+  </si>
+  <si>
+    <t>(1.399)</t>
+  </si>
+  <si>
+    <t>(2.467)</t>
+  </si>
+  <si>
+    <t>(3.550)</t>
+  </si>
+  <si>
+    <t>0.000</t>
+  </si>
+  <si>
+    <t>0.009***</t>
+  </si>
+  <si>
+    <t>0.035***</t>
+  </si>
+  <si>
+    <t>-0.037***</t>
+  </si>
+  <si>
+    <t>-12.181***</t>
+  </si>
+  <si>
+    <t>-8.602***</t>
+  </si>
+  <si>
+    <t>-3.502***</t>
+  </si>
+  <si>
+    <t>-3.501***</t>
+  </si>
+  <si>
+    <t>(0.091)</t>
+  </si>
+  <si>
+    <t>(0.150)</t>
+  </si>
+  <si>
+    <t>-13.010***</t>
+  </si>
+  <si>
+    <t>-9.002***</t>
+  </si>
+  <si>
+    <t>-4.073***</t>
+  </si>
+  <si>
+    <t>-4.061***</t>
+  </si>
+  <si>
+    <t>(0.115)</t>
+  </si>
+  <si>
+    <t>(0.118)</t>
+  </si>
+  <si>
+    <t>(0.169)</t>
+  </si>
+  <si>
+    <t>-9.013***</t>
+  </si>
+  <si>
+    <t>-6.111***</t>
+  </si>
+  <si>
+    <t>-3.182***</t>
+  </si>
+  <si>
+    <t>-3.167***</t>
+  </si>
+  <si>
+    <t>(0.212)</t>
+  </si>
+  <si>
+    <t>(0.181)</t>
+  </si>
+  <si>
+    <t>(0.189)</t>
+  </si>
+  <si>
+    <t>-0.634</t>
+  </si>
+  <si>
+    <t>-0.442</t>
+  </si>
+  <si>
+    <t>-0.718**</t>
+  </si>
+  <si>
+    <t>-0.706**</t>
+  </si>
+  <si>
+    <t>(0.384)</t>
+  </si>
+  <si>
+    <t>(0.311)</t>
+  </si>
+  <si>
+    <t>(0.255)</t>
+  </si>
+  <si>
+    <t>14.580***</t>
+  </si>
+  <si>
+    <t>10.393***</t>
+  </si>
+  <si>
+    <t>3.903***</t>
+  </si>
+  <si>
+    <t>3.923***</t>
+  </si>
+  <si>
+    <t>(0.760)</t>
+  </si>
+  <si>
+    <t>(0.603)</t>
+  </si>
+  <si>
+    <t>(0.407)</t>
+  </si>
+  <si>
+    <t>-15.604***</t>
+  </si>
+  <si>
+    <t>-10.121***</t>
+  </si>
+  <si>
+    <t>-3.369***</t>
+  </si>
+  <si>
+    <t>-3.363***</t>
+  </si>
+  <si>
+    <t>(0.237)</t>
+  </si>
+  <si>
+    <t>-13.702***</t>
+  </si>
+  <si>
+    <t>-10.512***</t>
+  </si>
+  <si>
+    <t>-4.337***</t>
+  </si>
+  <si>
+    <t>-4.322***</t>
+  </si>
+  <si>
+    <t>(0.203)</t>
+  </si>
+  <si>
+    <t>(0.171)</t>
+  </si>
+  <si>
+    <t>0.012***</t>
+  </si>
+  <si>
+    <t>-0.086</t>
+  </si>
+  <si>
+    <t>-0.094</t>
+  </si>
+  <si>
+    <t>-0.088</t>
+  </si>
+  <si>
+    <t>(0.071)</t>
+  </si>
+  <si>
+    <t>-0.019</t>
+  </si>
+  <si>
+    <t>0.011</t>
+  </si>
+  <si>
+    <t>(0.027)</t>
+  </si>
+  <si>
+    <t>(0.036)</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>-0.000**</t>
+  </si>
+  <si>
+    <t>6.120***</t>
+  </si>
+  <si>
+    <t>3.207***</t>
+  </si>
+  <si>
+    <t>3.214***</t>
+  </si>
+  <si>
+    <t>(0.108)</t>
+  </si>
+  <si>
+    <t>(0.077)</t>
+  </si>
+  <si>
+    <t>-7.101***</t>
+  </si>
+  <si>
+    <t>-3.660***</t>
+  </si>
+  <si>
+    <t>-3.661***</t>
+  </si>
+  <si>
+    <t>(0.097)</t>
+  </si>
+  <si>
+    <t>(0.082)</t>
+  </si>
+  <si>
+    <t>-0.427***</t>
+  </si>
+  <si>
+    <t>-0.426***</t>
+  </si>
+  <si>
+    <t>-4.186</t>
+  </si>
+  <si>
+    <t>-4.180</t>
+  </si>
+  <si>
+    <t>(2.207)</t>
+  </si>
+  <si>
+    <t>(2.193)</t>
+  </si>
+  <si>
+    <t>-0.798***</t>
+  </si>
+  <si>
+    <t>-0.777***</t>
+  </si>
+  <si>
+    <t>(0.164)</t>
+  </si>
+  <si>
+    <t>3.026***</t>
+  </si>
+  <si>
+    <t>2.963***</t>
+  </si>
+  <si>
+    <t>(0.328)</t>
+  </si>
+  <si>
+    <t>-4.207***</t>
+  </si>
+  <si>
+    <t>-4.297***</t>
+  </si>
+  <si>
+    <t>(0.427)</t>
+  </si>
+  <si>
+    <t>(0.428)</t>
+  </si>
+  <si>
+    <t>13.751***</t>
+  </si>
+  <si>
+    <t>13.672***</t>
+  </si>
+  <si>
+    <t>(0.858)</t>
+  </si>
+  <si>
+    <t>(0.869)</t>
+  </si>
+  <si>
+    <t>-23.184***</t>
+  </si>
+  <si>
+    <t>-23.153***</t>
+  </si>
+  <si>
+    <t>(0.549)</t>
+  </si>
+  <si>
+    <t>(0.548)</t>
+  </si>
+  <si>
+    <t>minority_percent^2</t>
+  </si>
+  <si>
+    <t>-0.001*</t>
+  </si>
+  <si>
+    <t>minority_percent * median_family_income</t>
+  </si>
+  <si>
+    <t>minority_percent * cook_pvi</t>
+  </si>
+  <si>
+    <t>minority_percent * rural</t>
+  </si>
+  <si>
+    <t>minority_percent * estimate_gini_index</t>
+  </si>
+  <si>
+    <t>-0.165</t>
+  </si>
+  <si>
+    <t>(0.096)</t>
+  </si>
+  <si>
+    <t>minority_percent * violent_crime_rate</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>0.121</t>
+  </si>
+  <si>
+    <t>0.707</t>
+  </si>
+  <si>
+    <t>0.708</t>
+  </si>
+  <si>
+    <t>Adj. R2</t>
+  </si>
+  <si>
+    <t>45.554***</t>
+  </si>
+  <si>
+    <t>40.301***</t>
+  </si>
+  <si>
+    <t>43.286*</t>
+  </si>
+  <si>
+    <t>66.603**</t>
+  </si>
+  <si>
+    <t>37.337</t>
+  </si>
+  <si>
+    <t>(8.053)</t>
+  </si>
+  <si>
+    <t>(6.470)</t>
+  </si>
+  <si>
+    <t>(17.507)</t>
+  </si>
+  <si>
+    <t>(20.410)</t>
+  </si>
+  <si>
+    <t>(23.867)</t>
+  </si>
+  <si>
+    <t>-0.023</t>
+  </si>
+  <si>
+    <t>-0.091</t>
+  </si>
+  <si>
+    <t>0.068</t>
+  </si>
+  <si>
+    <t>(0.049)</t>
+  </si>
+  <si>
+    <t>(0.056)</t>
+  </si>
+  <si>
+    <t>0.180***</t>
+  </si>
+  <si>
+    <t>0.166***</t>
+  </si>
+  <si>
+    <t>0.162*</t>
+  </si>
+  <si>
+    <t>0.010</t>
+  </si>
+  <si>
+    <t>1.826*</t>
+  </si>
+  <si>
+    <t>(0.063)</t>
+  </si>
+  <si>
+    <t>(0.764)</t>
+  </si>
+  <si>
+    <t>-0.286***</t>
+  </si>
+  <si>
+    <t>-0.121**</t>
+  </si>
+  <si>
+    <t>-0.092</t>
+  </si>
+  <si>
+    <t>-0.176</t>
+  </si>
+  <si>
+    <t>-0.160</t>
+  </si>
+  <si>
+    <t>(0.054)</t>
+  </si>
+  <si>
+    <t>(0.045)</t>
+  </si>
+  <si>
+    <t>(0.107)</t>
+  </si>
+  <si>
+    <t>(0.141)</t>
+  </si>
+  <si>
+    <t>0.172</t>
+  </si>
+  <si>
+    <t>0.093</t>
+  </si>
+  <si>
+    <t>0.171</t>
+  </si>
+  <si>
+    <t>-0.258</t>
+  </si>
+  <si>
+    <t>-0.257</t>
+  </si>
+  <si>
+    <t>(0.094)</t>
+  </si>
+  <si>
+    <t>(0.081)</t>
+  </si>
+  <si>
+    <t>(0.174)</t>
+  </si>
+  <si>
+    <t>-0.078**</t>
+  </si>
+  <si>
+    <t>-0.129**</t>
+  </si>
+  <si>
+    <t>-0.115*</t>
+  </si>
+  <si>
+    <t>0.098</t>
+  </si>
+  <si>
+    <t>(0.022)</t>
+  </si>
+  <si>
+    <t>0.029</t>
+  </si>
+  <si>
+    <t>0.020</t>
+  </si>
+  <si>
+    <t>-0.153</t>
+  </si>
+  <si>
+    <t>(0.024)</t>
+  </si>
+  <si>
+    <t>(0.144)</t>
+  </si>
+  <si>
+    <t>14.683</t>
+  </si>
+  <si>
+    <t>14.446</t>
+  </si>
+  <si>
+    <t>40.785</t>
+  </si>
+  <si>
+    <t>28.967</t>
+  </si>
+  <si>
+    <t>66.906*</t>
+  </si>
+  <si>
+    <t>(12.700)</t>
+  </si>
+  <si>
+    <t>(9.906)</t>
+  </si>
+  <si>
+    <t>(21.129)</t>
+  </si>
+  <si>
+    <t>(19.870)</t>
+  </si>
+  <si>
+    <t>(33.319)</t>
+  </si>
+  <si>
+    <t>-0.048</t>
+  </si>
+  <si>
+    <t>-0.075*</t>
+  </si>
+  <si>
+    <t>-0.163**</t>
+  </si>
+  <si>
+    <t>(0.055)</t>
+  </si>
+  <si>
+    <t>-8.458***</t>
+  </si>
+  <si>
+    <t>-4.363***</t>
+  </si>
+  <si>
+    <t>-4.398***</t>
+  </si>
+  <si>
+    <t>(0.332)</t>
+  </si>
+  <si>
+    <t>(0.192)</t>
+  </si>
+  <si>
+    <t>(0.196)</t>
+  </si>
+  <si>
+    <t>-12.910***</t>
+  </si>
+  <si>
+    <t>-8.892***</t>
+  </si>
+  <si>
+    <t>-4.977***</t>
+  </si>
+  <si>
+    <t>-4.997***</t>
+  </si>
+  <si>
+    <t>(0.292)</t>
+  </si>
+  <si>
+    <t>(0.374)</t>
+  </si>
+  <si>
+    <t>(0.248)</t>
+  </si>
+  <si>
+    <t>-9.001***</t>
+  </si>
+  <si>
+    <t>-6.190***</t>
+  </si>
+  <si>
+    <t>-3.900***</t>
+  </si>
+  <si>
+    <t>-3.954***</t>
+  </si>
+  <si>
+    <t>(0.401)</t>
+  </si>
+  <si>
+    <t>(0.279)</t>
+  </si>
+  <si>
+    <t>(0.297)</t>
+  </si>
+  <si>
+    <t>-0.806</t>
+  </si>
+  <si>
+    <t>-0.782</t>
+  </si>
+  <si>
+    <t>-1.080*</t>
+  </si>
+  <si>
+    <t>-1.156*</t>
+  </si>
+  <si>
+    <t>(0.808)</t>
+  </si>
+  <si>
+    <t>(0.734)</t>
+  </si>
+  <si>
+    <t>(0.481)</t>
+  </si>
+  <si>
+    <t>(0.495)</t>
+  </si>
+  <si>
+    <t>13.811***</t>
+  </si>
+  <si>
+    <t>9.375***</t>
+  </si>
+  <si>
+    <t>4.287***</t>
+  </si>
+  <si>
+    <t>4.094***</t>
+  </si>
+  <si>
+    <t>(1.250)</t>
+  </si>
+  <si>
+    <t>(1.254)</t>
+  </si>
+  <si>
+    <t>(0.735)</t>
+  </si>
+  <si>
+    <t>(0.746)</t>
+  </si>
+  <si>
+    <t>-16.119***</t>
+  </si>
+  <si>
+    <t>-8.982***</t>
+  </si>
+  <si>
+    <t>-3.426***</t>
+  </si>
+  <si>
+    <t>-3.205**</t>
+  </si>
+  <si>
+    <t>(1.299)</t>
+  </si>
+  <si>
+    <t>(1.383)</t>
+  </si>
+  <si>
+    <t>(1.015)</t>
+  </si>
+  <si>
+    <t>(1.007)</t>
+  </si>
+  <si>
+    <t>-13.855***</t>
+  </si>
+  <si>
+    <t>-10.168***</t>
+  </si>
+  <si>
+    <t>-5.529***</t>
+  </si>
+  <si>
+    <t>-5.379***</t>
+  </si>
+  <si>
+    <t>(1.357)</t>
+  </si>
+  <si>
+    <t>(1.102)</t>
+  </si>
+  <si>
+    <t>(0.608)</t>
+  </si>
+  <si>
+    <t>(0.600)</t>
+  </si>
+  <si>
+    <t>-0.034***</t>
+  </si>
+  <si>
+    <t>-2.628***</t>
+  </si>
+  <si>
+    <t>-1.754***</t>
+  </si>
+  <si>
+    <t>-1.671***</t>
+  </si>
+  <si>
+    <t>(0.610)</t>
+  </si>
+  <si>
+    <t>(0.513)</t>
+  </si>
+  <si>
+    <t>(0.491)</t>
+  </si>
+  <si>
+    <t>-0.745</t>
+  </si>
+  <si>
+    <t>-1.043</t>
+  </si>
+  <si>
+    <t>-0.344</t>
+  </si>
+  <si>
+    <t>(1.050)</t>
+  </si>
+  <si>
+    <t>(1.112)</t>
+  </si>
+  <si>
+    <t>(1.039)</t>
+  </si>
+  <si>
+    <t>0.000**</t>
+  </si>
+  <si>
+    <t>6.308***</t>
+  </si>
+  <si>
+    <t>4.111***</t>
+  </si>
+  <si>
+    <t>4.100***</t>
+  </si>
+  <si>
+    <t>(0.620)</t>
+  </si>
+  <si>
+    <t>(0.441)</t>
+  </si>
+  <si>
+    <t>(0.442)</t>
+  </si>
+  <si>
+    <t>-7.490***</t>
+  </si>
+  <si>
+    <t>-4.806***</t>
+  </si>
+  <si>
+    <t>(0.593)</t>
+  </si>
+  <si>
+    <t>(0.487)</t>
+  </si>
+  <si>
+    <t>(0.483)</t>
+  </si>
+  <si>
+    <t>-0.095</t>
+  </si>
+  <si>
+    <t>-0.079</t>
+  </si>
+  <si>
+    <t>(0.050)</t>
+  </si>
+  <si>
+    <t>-3.901</t>
+  </si>
+  <si>
+    <t>-4.151</t>
+  </si>
+  <si>
+    <t>(2.944)</t>
+  </si>
+  <si>
+    <t>(3.602)</t>
+  </si>
+  <si>
+    <t>-0.002</t>
+  </si>
+  <si>
+    <t>0.502</t>
+  </si>
+  <si>
+    <t>0.643*</t>
+  </si>
+  <si>
+    <t>(0.276)</t>
+  </si>
+  <si>
+    <t>2.067</t>
+  </si>
+  <si>
+    <t>2.086</t>
+  </si>
+  <si>
+    <t>(1.724)</t>
+  </si>
+  <si>
+    <t>(1.697)</t>
+  </si>
+  <si>
+    <t>-6.034*</t>
+  </si>
+  <si>
+    <t>-6.527*</t>
+  </si>
+  <si>
+    <t>(2.708)</t>
+  </si>
+  <si>
+    <t>(2.681)</t>
+  </si>
+  <si>
+    <t>17.320***</t>
+  </si>
+  <si>
+    <t>16.727***</t>
+  </si>
+  <si>
+    <t>(4.009)</t>
+  </si>
+  <si>
+    <t>(3.829)</t>
+  </si>
+  <si>
+    <t>-27.234***</t>
+  </si>
+  <si>
+    <t>-27.310***</t>
+  </si>
+  <si>
+    <t>(2.419)</t>
+  </si>
+  <si>
+    <t>(2.431)</t>
+  </si>
+  <si>
+    <t>-0.011***</t>
+  </si>
+  <si>
+    <t>minority_percent * median_income</t>
+  </si>
+  <si>
+    <t>0.001</t>
+  </si>
+  <si>
+    <t>minority_percent * republican_percent</t>
+  </si>
+  <si>
+    <t>-0.010*</t>
+  </si>
+  <si>
+    <t>minority_percent * pop_den</t>
+  </si>
+  <si>
+    <t>-1.870</t>
+  </si>
+  <si>
+    <t>(1.261)</t>
+  </si>
+  <si>
+    <t>0.615</t>
+  </si>
+  <si>
+    <t>0.619</t>
   </si>
 </sst>
 </file>
@@ -1776,8 +1812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B0CA3D-02E4-4468-B54B-7FC1E729C28D}">
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1787,7 +1823,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1810,39 +1846,39 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>50</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1850,1579 +1886,1579 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>52</v>
+        <v>136</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>149</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>151</v>
+        <v>50</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>152</v>
+        <v>51</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>153</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>139</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>155</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>156</v>
+        <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>146</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>60</v>
+        <v>147</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>61</v>
+        <v>148</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>152</v>
+        <v>56</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>162</v>
+        <v>58</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>163</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>151</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>165</v>
+        <v>60</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>165</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>66</v>
+        <v>155</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>67</v>
+        <v>156</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>55</v>
+        <v>157</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>161</v>
+        <v>50</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>168</v>
+        <v>55</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>168</v>
+        <v>54</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>168</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>68</v>
+        <v>161</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>69</v>
+        <v>162</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>71</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>74</v>
+        <v>171</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>76</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>175</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>176</v>
+        <v>63</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>177</v>
+        <v>50</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>178</v>
+        <v>50</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>179</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>180</v>
+        <v>46</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>81</v>
+        <v>182</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>82</v>
+        <v>183</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>83</v>
+        <v>184</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>85</v>
+        <v>188</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>86</v>
+        <v>189</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>87</v>
+        <v>190</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>88</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>185</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>89</v>
+        <v>195</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>90</v>
+        <v>196</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>91</v>
+        <v>197</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>93</v>
+        <v>202</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>94</v>
+        <v>203</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>96</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>97</v>
+        <v>211</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>98</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>99</v>
+        <v>216</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>100</v>
+        <v>217</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>102</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>200</v>
+        <v>86</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>103</v>
+        <v>221</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>104</v>
+        <v>222</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>105</v>
+        <v>223</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>106</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>204</v>
+        <v>99</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>109</v>
+        <v>227</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>207</v>
+        <v>66</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>208</v>
+        <v>67</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>209</v>
+        <v>66</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>210</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>211</v>
+        <v>67</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>212</v>
+        <v>67</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>211</v>
+        <v>67</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>211</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>57</v>
+        <v>228</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>115</v>
+        <v>229</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>115</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>212</v>
+        <v>46</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>212</v>
+        <v>114</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>212</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>117</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>217</v>
+        <v>42</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>218</v>
+        <v>62</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>220</v>
+        <v>66</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>221</v>
+        <v>66</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>221</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>118</v>
+        <v>238</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>118</v>
+        <v>239</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>119</v>
+        <v>243</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>120</v>
+        <v>244</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>121</v>
+        <v>245</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>123</v>
+        <v>248</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>124</v>
+        <v>249</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>224</v>
+        <v>46</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>225</v>
+        <v>97</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>225</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>126</v>
+        <v>251</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>227</v>
+        <v>43</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>228</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>229</v>
+        <v>73</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>230</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>127</v>
+        <v>254</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>128</v>
+        <v>255</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>168</v>
+        <v>256</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>129</v>
+        <v>257</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>130</v>
+        <v>258</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>210</v>
+        <v>74</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>210</v>
+        <v>259</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>131</v>
+        <v>260</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>132</v>
+        <v>261</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>133</v>
+        <v>264</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>134</v>
+        <v>265</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>135</v>
+        <v>268</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>136</v>
+        <v>269</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>236</v>
+        <v>271</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>36</v>
+        <v>272</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>137</v>
+        <v>46</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>138</v>
+        <v>273</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>237</v>
+        <v>46</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>238</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>37</v>
+        <v>274</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>139</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>211</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>38</v>
+        <v>275</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>211</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>39</v>
+        <v>276</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>211</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>40</v>
+        <v>277</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>140</v>
+        <v>278</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>211</v>
+        <v>279</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>41</v>
+        <v>280</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>239</v>
+        <v>178</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>240</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>42</v>
+        <v>281</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>143</v>
+        <v>282</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>143</v>
+        <v>283</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>141</v>
+        <v>284</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>143</v>
+        <v>285</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>143</v>
+        <v>282</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>143</v>
+        <v>283</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>142</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>211</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>449</v>
+        <v>124</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>164</v>
+        <v>57</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>243</v>
+        <v>79</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>244</v>
+        <v>80</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>245</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>450</v>
+        <v>125</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>164</v>
+        <v>57</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>243</v>
+        <v>79</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>244</v>
+        <v>80</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>245</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>448</v>
+        <v>123</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>246</v>
+        <v>82</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>246</v>
+        <v>82</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>246</v>
+        <v>82</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>246</v>
+        <v>82</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>246</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3434,8 +3470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED785CC2-24DF-48DB-99B0-D704E19C7C73}">
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3445,7 +3481,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3468,1619 +3504,1619 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>247</v>
+        <v>286</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>248</v>
+        <v>287</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>251</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>254</v>
+        <v>293</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>255</v>
+        <v>294</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>257</v>
+        <v>83</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>258</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>260</v>
+        <v>297</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>161</v>
+        <v>71</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>139</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>114</v>
+        <v>301</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>263</v>
+        <v>302</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>264</v>
+        <v>303</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>266</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>155</v>
+        <v>234</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>168</v>
+        <v>306</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>267</v>
+        <v>68</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>158</v>
+        <v>313</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>156</v>
+        <v>314</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>231</v>
+        <v>315</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>267</v>
+        <v>316</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>225</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>274</v>
+        <v>317</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>275</v>
+        <v>318</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>276</v>
+        <v>319</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>277</v>
+        <v>320</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>278</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>231</v>
+        <v>322</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>165</v>
+        <v>323</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>279</v>
+        <v>324</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>282</v>
+        <v>94</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>283</v>
+        <v>326</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>284</v>
+        <v>327</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>285</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>286</v>
+        <v>71</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>287</v>
+        <v>329</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>290</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>291</v>
+        <v>91</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>292</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>293</v>
+        <v>92</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>162</v>
+        <v>85</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>161</v>
+        <v>90</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>155</v>
+        <v>333</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>155</v>
+        <v>333</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>298</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>180</v>
+        <v>335</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>152</v>
+        <v>340</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>151</v>
+        <v>341</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>152</v>
+        <v>342</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>151</v>
+        <v>343</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>152</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>303</v>
+        <v>232</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>304</v>
+        <v>62</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>305</v>
+        <v>345</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>306</v>
+        <v>346</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>308</v>
+        <v>58</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>309</v>
+        <v>53</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>311</v>
+        <v>236</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>313</v>
+        <v>46</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>314</v>
+        <v>96</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>270</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>149</v>
+        <v>64</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>153</v>
+        <v>352</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>153</v>
+        <v>353</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>162</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>159</v>
+        <v>359</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>322</v>
+        <v>86</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>328</v>
+        <v>75</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>193</v>
+        <v>374</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>362</v>
+        <v>100</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>363</v>
+        <v>101</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>364</v>
+        <v>227</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>365</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>366</v>
+        <v>63</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>367</v>
+        <v>49</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>187</v>
+        <v>63</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>368</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>369</v>
+        <v>103</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>370</v>
+        <v>104</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>371</v>
+        <v>401</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>211</v>
+        <v>49</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>212</v>
+        <v>48</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>211</v>
+        <v>63</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>211</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>372</v>
+        <v>46</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>373</v>
+        <v>402</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>374</v>
+        <v>403</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>374</v>
+        <v>404</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>212</v>
+        <v>46</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>212</v>
+        <v>405</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>212</v>
+        <v>406</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>212</v>
+        <v>407</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>375</v>
+        <v>408</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>376</v>
+        <v>409</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>377</v>
+        <v>410</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>378</v>
+        <v>411</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>379</v>
+        <v>412</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>380</v>
+        <v>413</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>381</v>
+        <v>108</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>382</v>
+        <v>108</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>383</v>
+        <v>414</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>384</v>
+        <v>66</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>385</v>
+        <v>66</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>386</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>387</v>
+        <v>25</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>388</v>
+        <v>416</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>388</v>
+        <v>417</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>211</v>
+        <v>418</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>211</v>
+        <v>419</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>211</v>
+        <v>420</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>389</v>
+        <v>421</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>390</v>
+        <v>44</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>391</v>
+        <v>422</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>392</v>
+        <v>423</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>393</v>
+        <v>424</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>223</v>
+        <v>425</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>394</v>
+        <v>110</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>395</v>
+        <v>46</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>396</v>
+        <v>426</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>397</v>
+        <v>427</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>398</v>
+        <v>46</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>399</v>
+        <v>428</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>400</v>
+        <v>313</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>401</v>
+        <v>111</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>59</v>
+        <v>429</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>402</v>
+        <v>430</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>158</v>
+        <v>431</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>158</v>
+        <v>432</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>403</v>
+        <v>112</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>404</v>
+        <v>35</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>405</v>
+        <v>433</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>406</v>
+        <v>87</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>407</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>408</v>
+        <v>113</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>409</v>
+        <v>434</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>151</v>
+        <v>436</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>151</v>
+        <v>367</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>411</v>
+        <v>31</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>412</v>
+        <v>437</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>414</v>
+        <v>439</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>415</v>
+        <v>440</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>416</v>
+        <v>441</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>418</v>
+        <v>443</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>196</v>
+        <v>444</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>420</v>
+        <v>446</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>424</v>
+        <v>450</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>36</v>
+        <v>272</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>427</v>
+        <v>46</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>232</v>
+        <v>46</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>429</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>37</v>
+        <v>454</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>430</v>
+        <v>455</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>212</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>38</v>
+        <v>456</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>314</v>
+        <v>457</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>212</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>432</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>212</v>
+        <v>49</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>433</v>
+        <v>277</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>434</v>
+        <v>459</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>212</v>
+        <v>460</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>435</v>
+        <v>280</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>436</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>211</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>42</v>
+        <v>281</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>143</v>
+        <v>461</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>437</v>
+        <v>462</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>143</v>
+        <v>285</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>143</v>
+        <v>461</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>438</v>
+        <v>462</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>439</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>211</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>449</v>
+        <v>124</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>440</v>
+        <v>115</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>441</v>
+        <v>116</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>442</v>
+        <v>117</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>443</v>
+        <v>118</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>444</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>450</v>
+        <v>125</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>440</v>
+        <v>115</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>441</v>
+        <v>116</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>442</v>
+        <v>117</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>443</v>
+        <v>118</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>444</v>
+        <v>119</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>445</v>
+        <v>120</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>446</v>
+        <v>121</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>446</v>
+        <v>121</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>446</v>
+        <v>121</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>447</v>
+        <v>122</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>447</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/COVIDPPP/zip_table.xlsx
+++ b/COVIDPPP/zip_table.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Regular/Desktop/GOV50/pppdata/COVIDPPP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Justin\Gov50\pppdata\COVIDPPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BB8259-48A4-1846-A1CA-F2EE7ABE8ED9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF681ED-4012-42B4-92A9-E6D2D1AF5BDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="460" windowWidth="26400" windowHeight="14900" activeTab="1" xr2:uid="{2AB6B7C7-F0F5-4EB5-A4BE-986410258A95}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2AB6B7C7-F0F5-4EB5-A4BE-986410258A95}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="609">
   <si>
     <t>Model 1</t>
   </si>
@@ -1397,6 +1398,462 @@
   </si>
   <si>
     <t>2151</t>
+  </si>
+  <si>
+    <t>-0.009***</t>
+  </si>
+  <si>
+    <t>-0.006***</t>
+  </si>
+  <si>
+    <t>0.003</t>
+  </si>
+  <si>
+    <t>0.086***</t>
+  </si>
+  <si>
+    <t>0.065***</t>
+  </si>
+  <si>
+    <t>0.048***</t>
+  </si>
+  <si>
+    <t>0.022***</t>
+  </si>
+  <si>
+    <t>0.021</t>
+  </si>
+  <si>
+    <t>0.024**</t>
+  </si>
+  <si>
+    <t>-0.011</t>
+  </si>
+  <si>
+    <t>(0.007)</t>
+  </si>
+  <si>
+    <t>-0.012*</t>
+  </si>
+  <si>
+    <t>-0.013</t>
+  </si>
+  <si>
+    <t>male_percent</t>
+  </si>
+  <si>
+    <t>-0.197***</t>
+  </si>
+  <si>
+    <t>-0.134***</t>
+  </si>
+  <si>
+    <t>-0.070***</t>
+  </si>
+  <si>
+    <t>0.008</t>
+  </si>
+  <si>
+    <t>-0.014***</t>
+  </si>
+  <si>
+    <t>-0.005</t>
+  </si>
+  <si>
+    <t>-0.009**</t>
+  </si>
+  <si>
+    <t>0.140</t>
+  </si>
+  <si>
+    <t>-0.215</t>
+  </si>
+  <si>
+    <t>-1.180**</t>
+  </si>
+  <si>
+    <t>-1.374**</t>
+  </si>
+  <si>
+    <t>(0.179)</t>
+  </si>
+  <si>
+    <t>(0.136)</t>
+  </si>
+  <si>
+    <t>(0.113)</t>
+  </si>
+  <si>
+    <t>(0.533)</t>
+  </si>
+  <si>
+    <t>-9.200***</t>
+  </si>
+  <si>
+    <t>-6.245***</t>
+  </si>
+  <si>
+    <t>-3.009***</t>
+  </si>
+  <si>
+    <t>-2.666*</t>
+  </si>
+  <si>
+    <t>-2.346</t>
+  </si>
+  <si>
+    <t>(1.208)</t>
+  </si>
+  <si>
+    <t>(0.778)</t>
+  </si>
+  <si>
+    <t>(0.680)</t>
+  </si>
+  <si>
+    <t>(1.157)</t>
+  </si>
+  <si>
+    <t>(1.797)</t>
+  </si>
+  <si>
+    <t>-0.005*</t>
+  </si>
+  <si>
+    <t>-0.094***</t>
+  </si>
+  <si>
+    <t>-0.090***</t>
+  </si>
+  <si>
+    <t>22.300***</t>
+  </si>
+  <si>
+    <t>13.983***</t>
+  </si>
+  <si>
+    <t>6.401***</t>
+  </si>
+  <si>
+    <t>6.404***</t>
+  </si>
+  <si>
+    <t>(0.103)</t>
+  </si>
+  <si>
+    <t>-3.312***</t>
+  </si>
+  <si>
+    <t>-1.855***</t>
+  </si>
+  <si>
+    <t>-0.551***</t>
+  </si>
+  <si>
+    <t>-0.550***</t>
+  </si>
+  <si>
+    <t>(0.028)</t>
+  </si>
+  <si>
+    <t>-2.005***</t>
+  </si>
+  <si>
+    <t>-0.815***</t>
+  </si>
+  <si>
+    <t>-0.234***</t>
+  </si>
+  <si>
+    <t>-0.230***</t>
+  </si>
+  <si>
+    <t>(0.064)</t>
+  </si>
+  <si>
+    <t>(0.066)</t>
+  </si>
+  <si>
+    <t>0.492***</t>
+  </si>
+  <si>
+    <t>0.909***</t>
+  </si>
+  <si>
+    <t>0.313***</t>
+  </si>
+  <si>
+    <t>0.318***</t>
+  </si>
+  <si>
+    <t>(0.085)</t>
+  </si>
+  <si>
+    <t>3.975***</t>
+  </si>
+  <si>
+    <t>3.237***</t>
+  </si>
+  <si>
+    <t>1.259***</t>
+  </si>
+  <si>
+    <t>1.261***</t>
+  </si>
+  <si>
+    <t>(0.177)</t>
+  </si>
+  <si>
+    <t>(0.137)</t>
+  </si>
+  <si>
+    <t>9.279***</t>
+  </si>
+  <si>
+    <t>6.742***</t>
+  </si>
+  <si>
+    <t>2.388***</t>
+  </si>
+  <si>
+    <t>2.384***</t>
+  </si>
+  <si>
+    <t>(0.364)</t>
+  </si>
+  <si>
+    <t>(0.321)</t>
+  </si>
+  <si>
+    <t>(0.243)</t>
+  </si>
+  <si>
+    <t>-8.271***</t>
+  </si>
+  <si>
+    <t>-4.962***</t>
+  </si>
+  <si>
+    <t>-0.247</t>
+  </si>
+  <si>
+    <t>-0.246</t>
+  </si>
+  <si>
+    <t>(0.123)</t>
+  </si>
+  <si>
+    <t>(0.170)</t>
+  </si>
+  <si>
+    <t>-8.345***</t>
+  </si>
+  <si>
+    <t>-6.184***</t>
+  </si>
+  <si>
+    <t>-1.872***</t>
+  </si>
+  <si>
+    <t>-1.868***</t>
+  </si>
+  <si>
+    <t>(0.097)</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>-3.814***</t>
+  </si>
+  <si>
+    <t>-2.761***</t>
+  </si>
+  <si>
+    <t>-0.876***</t>
+  </si>
+  <si>
+    <t>-0.871***</t>
+  </si>
+  <si>
+    <t>(0.071)</t>
+  </si>
+  <si>
+    <t>(0.059)</t>
+  </si>
+  <si>
+    <t>cu</t>
+  </si>
+  <si>
+    <t>2.825***</t>
+  </si>
+  <si>
+    <t>3.073***</t>
+  </si>
+  <si>
+    <t>1.116***</t>
+  </si>
+  <si>
+    <t>1.115***</t>
+  </si>
+  <si>
+    <t>0.007***</t>
+  </si>
+  <si>
+    <t>0.002***</t>
+  </si>
+  <si>
+    <t>0.090</t>
+  </si>
+  <si>
+    <t>0.088</t>
+  </si>
+  <si>
+    <t>(0.050)</t>
+  </si>
+  <si>
+    <t>-0.015</t>
+  </si>
+  <si>
+    <t>-0.041</t>
+  </si>
+  <si>
+    <t>-0.040</t>
+  </si>
+  <si>
+    <t>5.538***</t>
+  </si>
+  <si>
+    <t>3.156***</t>
+  </si>
+  <si>
+    <t>3.167***</t>
+  </si>
+  <si>
+    <t>(0.132)</t>
+  </si>
+  <si>
+    <t>-5.654***</t>
+  </si>
+  <si>
+    <t>-2.794***</t>
+  </si>
+  <si>
+    <t>-2.793***</t>
+  </si>
+  <si>
+    <t>(0.072)</t>
+  </si>
+  <si>
+    <t>(0.079)</t>
+  </si>
+  <si>
+    <t>-0.185**</t>
+  </si>
+  <si>
+    <t>(0.061)</t>
+  </si>
+  <si>
+    <t>-4.074*</t>
+  </si>
+  <si>
+    <t>-4.023*</t>
+  </si>
+  <si>
+    <t>(1.832)</t>
+  </si>
+  <si>
+    <t>(1.840)</t>
+  </si>
+  <si>
+    <t>0.170***</t>
+  </si>
+  <si>
+    <t>-0.132</t>
+  </si>
+  <si>
+    <t>-0.134</t>
+  </si>
+  <si>
+    <t>(0.163)</t>
+  </si>
+  <si>
+    <t>0.778</t>
+  </si>
+  <si>
+    <t>0.759</t>
+  </si>
+  <si>
+    <t>(1.632)</t>
+  </si>
+  <si>
+    <t>(1.624)</t>
+  </si>
+  <si>
+    <t>-4.221***</t>
+  </si>
+  <si>
+    <t>-4.218***</t>
+  </si>
+  <si>
+    <t>(0.240)</t>
+  </si>
+  <si>
+    <t>(0.239)</t>
+  </si>
+  <si>
+    <t>10.552***</t>
+  </si>
+  <si>
+    <t>10.478***</t>
+  </si>
+  <si>
+    <t>(1.666)</t>
+  </si>
+  <si>
+    <t>-14.970***</t>
+  </si>
+  <si>
+    <t>-14.971***</t>
+  </si>
+  <si>
+    <t>(0.338)</t>
+  </si>
+  <si>
+    <t>0.000*</t>
+  </si>
+  <si>
+    <t>0.011</t>
+  </si>
+  <si>
+    <t>-0.019</t>
+  </si>
+  <si>
+    <t>(0.040)</t>
+  </si>
+  <si>
+    <t>R2 (full model)</t>
+  </si>
+  <si>
+    <t>0.050</t>
+  </si>
+  <si>
+    <t>0.311</t>
+  </si>
+  <si>
+    <t>0.556</t>
+  </si>
+  <si>
+    <t>0.811</t>
+  </si>
+  <si>
+    <t>Adj. R2 (full model)</t>
+  </si>
+  <si>
+    <t>0.049</t>
+  </si>
+  <si>
+    <t>0.310</t>
   </si>
 </sst>
 </file>
@@ -1748,19 +2205,3376 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DEA1FC0-C82C-4153-9AB3-DC4060F6A3BF}">
+  <dimension ref="A1:F84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B0CA3D-02E4-4468-B54B-7FC1E729C28D}">
+  <dimension ref="A1:F82"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED785CC2-24DF-48DB-99B0-D704E19C7C73}">
   <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -1780,367 +5594,367 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>119</v>
+        <v>277</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>120</v>
+        <v>278</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>121</v>
+        <v>279</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>122</v>
+        <v>280</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>124</v>
+        <v>282</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>125</v>
+        <v>283</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>126</v>
+        <v>284</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>127</v>
+        <v>285</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>129</v>
+        <v>287</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>130</v>
+        <v>288</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>131</v>
+        <v>289</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>132</v>
+        <v>290</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>292</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>40</v>
+        <v>229</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>134</v>
+        <v>293</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>135</v>
+        <v>294</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>136</v>
+        <v>295</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>41</v>
+        <v>297</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>139</v>
+        <v>298</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>140</v>
+        <v>299</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>141</v>
+        <v>300</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>301</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>44</v>
+        <v>192</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>144</v>
+        <v>303</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>145</v>
+        <v>304</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>146</v>
+        <v>305</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>237</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>306</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>45</v>
+        <v>307</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>161</v>
+        <v>47</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>162</v>
+        <v>47</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>164</v>
+        <v>320</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>165</v>
+        <v>321</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>166</v>
+        <v>322</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>167</v>
+        <v>323</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>169</v>
+        <v>325</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>170</v>
+        <v>326</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>171</v>
+        <v>327</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>172</v>
+        <v>328</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>116</v>
+        <v>311</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>37</v>
+        <v>330</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>77</v>
+        <v>331</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>174</v>
       </c>
@@ -2148,19 +5962,19 @@
         <v>38</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>175</v>
+        <v>333</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>176</v>
+        <v>334</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>177</v>
+        <v>335</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -2168,19 +5982,19 @@
         <v>38</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>179</v>
+        <v>254</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>180</v>
+        <v>337</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>181</v>
+        <v>338</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
@@ -2188,19 +6002,19 @@
         <v>38</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>182</v>
+        <v>339</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>183</v>
+        <v>340</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>184</v>
+        <v>341</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
@@ -2208,19 +6022,19 @@
         <v>38</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>186</v>
+        <v>85</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>187</v>
+        <v>344</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
@@ -2228,19 +6042,19 @@
         <v>38</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>188</v>
+        <v>346</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>189</v>
+        <v>347</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>190</v>
+        <v>348</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
@@ -2248,19 +6062,19 @@
         <v>38</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>191</v>
+        <v>350</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>54</v>
+        <v>345</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>15</v>
       </c>
@@ -2268,19 +6082,19 @@
         <v>38</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>193</v>
+        <v>352</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>194</v>
+        <v>353</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>195</v>
+        <v>354</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
@@ -2288,19 +6102,19 @@
         <v>38</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>160</v>
+        <v>356</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>198</v>
+        <v>357</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
@@ -2308,19 +6122,19 @@
         <v>38</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>199</v>
+        <v>358</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>200</v>
+        <v>359</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>201</v>
+        <v>360</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
@@ -2328,19 +6142,19 @@
         <v>38</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>202</v>
+        <v>362</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>84</v>
+        <v>363</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>203</v>
+        <v>364</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>17</v>
       </c>
@@ -2348,19 +6162,19 @@
         <v>38</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>204</v>
+        <v>366</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>205</v>
+        <v>367</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>206</v>
+        <v>368</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
@@ -2368,19 +6182,19 @@
         <v>38</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>208</v>
+        <v>370</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>209</v>
+        <v>371</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>210</v>
+        <v>372</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
@@ -2388,19 +6202,19 @@
         <v>38</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>211</v>
+        <v>374</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>212</v>
+        <v>375</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>213</v>
+        <v>376</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
@@ -2408,19 +6222,19 @@
         <v>38</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>215</v>
+        <v>378</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>108</v>
+        <v>379</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>216</v>
+        <v>380</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>19</v>
       </c>
@@ -2428,19 +6242,19 @@
         <v>38</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>217</v>
+        <v>382</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>218</v>
+        <v>383</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>219</v>
+        <v>384</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
@@ -2448,19 +6262,19 @@
         <v>38</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>221</v>
+        <v>91</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>222</v>
+        <v>386</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>65</v>
+        <v>387</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>20</v>
       </c>
@@ -2468,19 +6282,19 @@
         <v>38</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>223</v>
+        <v>389</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>223</v>
+        <v>390</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
@@ -2488,19 +6302,19 @@
         <v>38</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>21</v>
       </c>
@@ -2511,16 +6325,16 @@
         <v>224</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>225</v>
+        <v>391</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>226</v>
+        <v>392</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -2528,19 +6342,19 @@
         <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>22</v>
       </c>
@@ -2551,16 +6365,16 @@
         <v>38</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>53</v>
+        <v>393</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>227</v>
+        <v>394</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
@@ -2571,16 +6385,16 @@
         <v>38</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>229</v>
+        <v>396</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>230</v>
+        <v>397</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>23</v>
       </c>
@@ -2591,16 +6405,16 @@
         <v>38</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>231</v>
+        <v>399</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>114</v>
+        <v>400</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>38</v>
       </c>
@@ -2611,18 +6425,18 @@
         <v>38</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>47</v>
+        <v>402</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>60</v>
+        <v>403</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>38</v>
@@ -2631,16 +6445,16 @@
         <v>38</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>232</v>
+        <v>67</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2660,7 +6474,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>25</v>
       </c>
@@ -2671,16 +6485,16 @@
         <v>38</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>234</v>
+        <v>405</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>235</v>
+        <v>406</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>38</v>
       </c>
@@ -2691,18 +6505,18 @@
         <v>38</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>237</v>
+        <v>408</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>179</v>
+        <v>409</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>38</v>
@@ -2711,16 +6525,16 @@
         <v>38</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>239</v>
+        <v>411</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>240</v>
+        <v>412</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>38</v>
       </c>
@@ -2731,18 +6545,18 @@
         <v>38</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>192</v>
+        <v>414</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>109</v>
+        <v>415</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>38</v>
@@ -2754,13 +6568,13 @@
         <v>38</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>242</v>
+        <v>417</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>38</v>
       </c>
@@ -2774,15 +6588,15 @@
         <v>38</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>90</v>
+        <v>229</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>38</v>
@@ -2794,13 +6608,13 @@
         <v>38</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>244</v>
+        <v>419</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>38</v>
       </c>
@@ -2814,15 +6628,15 @@
         <v>38</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>246</v>
+        <v>421</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>38</v>
@@ -2834,13 +6648,13 @@
         <v>38</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>248</v>
+        <v>116</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>38</v>
       </c>
@@ -2854,15 +6668,15 @@
         <v>38</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>38</v>
@@ -2874,13 +6688,13 @@
         <v>38</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>249</v>
+        <v>423</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>38</v>
       </c>
@@ -2894,13 +6708,13 @@
         <v>38</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>83</v>
+        <v>425</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>31</v>
       </c>
@@ -2914,13 +6728,13 @@
         <v>38</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>252</v>
+        <v>427</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>38</v>
       </c>
@@ -2934,13 +6748,13 @@
         <v>38</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>80</v>
+        <v>429</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>32</v>
       </c>
@@ -2954,13 +6768,13 @@
         <v>38</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>255</v>
+        <v>431</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>38</v>
       </c>
@@ -2974,13 +6788,13 @@
         <v>38</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>257</v>
+        <v>433</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>33</v>
       </c>
@@ -2994,13 +6808,13 @@
         <v>38</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>258</v>
+        <v>435</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>38</v>
       </c>
@@ -3014,13 +6828,13 @@
         <v>38</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>437</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>34</v>
       </c>
@@ -3034,13 +6848,13 @@
         <v>38</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>261</v>
+        <v>439</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>38</v>
       </c>
@@ -3054,13 +6868,13 @@
         <v>38</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>263</v>
+        <v>441</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>93</v>
       </c>
@@ -3077,10 +6891,10 @@
         <v>38</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>38</v>
       </c>
@@ -3097,12 +6911,12 @@
         <v>38</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>38</v>
@@ -3117,10 +6931,10 @@
         <v>38</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>38</v>
       </c>
@@ -3137,12 +6951,12 @@
         <v>38</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>38</v>
@@ -3157,10 +6971,10 @@
         <v>38</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>38</v>
       </c>
@@ -3177,12 +6991,12 @@
         <v>38</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>38</v>
@@ -3197,10 +7011,10 @@
         <v>38</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>38</v>
       </c>
@@ -3217,10 +7031,10 @@
         <v>38</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>97</v>
       </c>
@@ -3237,10 +7051,10 @@
         <v>38</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>38</v>
       </c>
@@ -3257,10 +7071,10 @@
         <v>38</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>98</v>
       </c>
@@ -3277,10 +7091,10 @@
         <v>38</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>38</v>
       </c>
@@ -3297,1732 +7111,74 @@
         <v>38</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>266</v>
+        <v>447</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>267</v>
+        <v>448</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>268</v>
+        <v>449</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>266</v>
+        <v>447</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>267</v>
+        <v>448</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>268</v>
+        <v>449</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>269</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED785CC2-24DF-48DB-99B0-D704E19C7C73}">
-  <dimension ref="A1:F82"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="8.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B81" s="1" t="s">
         <v>451</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -5038,7 +7194,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>275</v>
       </c>

--- a/COVIDPPP/zip_table.xlsx
+++ b/COVIDPPP/zip_table.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Justin\Gov50\pppdata\COVIDPPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCEDDC1-8AD0-4392-98B7-9CA86BE929F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967B13E3-0289-4F4B-A3F6-68F2D118C6AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-1840" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{2AB6B7C7-F0F5-4EB5-A4BE-986410258A95}"/>
   </bookViews>
   <sheets>
     <sheet name="zip" sheetId="4" r:id="rId1"/>
     <sheet name="county" sheetId="2" r:id="rId2"/>
-    <sheet name="zip_check" sheetId="3" r:id="rId3"/>
+    <sheet name="countybiz" sheetId="5" r:id="rId3"/>
+    <sheet name="zip_check" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="859">
   <si>
     <t>Model 1</t>
   </si>
@@ -1986,6 +1987,624 @@
   </si>
   <si>
     <t>0.608</t>
+  </si>
+  <si>
+    <t>Model7</t>
+  </si>
+  <si>
+    <t>percent_minority_biz</t>
+  </si>
+  <si>
+    <t>Num groups: state</t>
+  </si>
+  <si>
+    <t>69.068***</t>
+  </si>
+  <si>
+    <t>-0.023*</t>
+  </si>
+  <si>
+    <t>-0.064*</t>
+  </si>
+  <si>
+    <t>-0.052*</t>
+  </si>
+  <si>
+    <t>0.232***</t>
+  </si>
+  <si>
+    <t>0.067***</t>
+  </si>
+  <si>
+    <t>0.217***</t>
+  </si>
+  <si>
+    <t>0.209***</t>
+  </si>
+  <si>
+    <t>0.403***</t>
+  </si>
+  <si>
+    <t>0.144***</t>
+  </si>
+  <si>
+    <t>0.446***</t>
+  </si>
+  <si>
+    <t>0.085*</t>
+  </si>
+  <si>
+    <t>0.118***</t>
+  </si>
+  <si>
+    <t>-0.163*</t>
+  </si>
+  <si>
+    <t>-0.189*</t>
+  </si>
+  <si>
+    <t>-0.726***</t>
+  </si>
+  <si>
+    <t>-0.186***</t>
+  </si>
+  <si>
+    <t>-0.058*</t>
+  </si>
+  <si>
+    <t>-0.051*</t>
+  </si>
+  <si>
+    <t>-0.031*</t>
+  </si>
+  <si>
+    <t>-0.133**</t>
+  </si>
+  <si>
+    <t>20.788***</t>
+  </si>
+  <si>
+    <t>15.939***</t>
+  </si>
+  <si>
+    <t>10.821***</t>
+  </si>
+  <si>
+    <t>10.801***</t>
+  </si>
+  <si>
+    <t>15.440***</t>
+  </si>
+  <si>
+    <t>15.424***</t>
+  </si>
+  <si>
+    <t>-2.264***</t>
+  </si>
+  <si>
+    <t>-1.698***</t>
+  </si>
+  <si>
+    <t>-0.887***</t>
+  </si>
+  <si>
+    <t>-1.451***</t>
+  </si>
+  <si>
+    <t>-1.457***</t>
+  </si>
+  <si>
+    <t>-1.334***</t>
+  </si>
+  <si>
+    <t>-1.117***</t>
+  </si>
+  <si>
+    <t>-0.730***</t>
+  </si>
+  <si>
+    <t>-0.739***</t>
+  </si>
+  <si>
+    <t>-0.903***</t>
+  </si>
+  <si>
+    <t>-0.916***</t>
+  </si>
+  <si>
+    <t>-0.496***</t>
+  </si>
+  <si>
+    <t>-0.508***</t>
+  </si>
+  <si>
+    <t>2.138***</t>
+  </si>
+  <si>
+    <t>0.927***</t>
+  </si>
+  <si>
+    <t>1.040***</t>
+  </si>
+  <si>
+    <t>1.018***</t>
+  </si>
+  <si>
+    <t>5.451***</t>
+  </si>
+  <si>
+    <t>3.222***</t>
+  </si>
+  <si>
+    <t>1.295***</t>
+  </si>
+  <si>
+    <t>1.267***</t>
+  </si>
+  <si>
+    <t>3.124***</t>
+  </si>
+  <si>
+    <t>-0.011***</t>
+  </si>
+  <si>
+    <t>-0.902**</t>
+  </si>
+  <si>
+    <t>-0.859**</t>
+  </si>
+  <si>
+    <t>-0.686*</t>
+  </si>
+  <si>
+    <t>3.945***</t>
+  </si>
+  <si>
+    <t>2.833***</t>
+  </si>
+  <si>
+    <t>2.828***</t>
+  </si>
+  <si>
+    <t>4.445***</t>
+  </si>
+  <si>
+    <t>4.424***</t>
+  </si>
+  <si>
+    <t>-4.594***</t>
+  </si>
+  <si>
+    <t>-3.227***</t>
+  </si>
+  <si>
+    <t>-3.234***</t>
+  </si>
+  <si>
+    <t>-5.028***</t>
+  </si>
+  <si>
+    <t>-5.042***</t>
+  </si>
+  <si>
+    <t>0.006**</t>
+  </si>
+  <si>
+    <t>0.007**</t>
+  </si>
+  <si>
+    <t>0.192***</t>
+  </si>
+  <si>
+    <t>0.200***</t>
+  </si>
+  <si>
+    <t>-4.825**</t>
+  </si>
+  <si>
+    <t>-4.750**</t>
+  </si>
+  <si>
+    <t>6.471***</t>
+  </si>
+  <si>
+    <t>6.410***</t>
+  </si>
+  <si>
+    <t>-15.568***</t>
+  </si>
+  <si>
+    <t>-15.628***</t>
+  </si>
+  <si>
+    <t>(14.271)</t>
+  </si>
+  <si>
+    <t>0.018</t>
+  </si>
+  <si>
+    <t>-0.019</t>
+  </si>
+  <si>
+    <t>-0.025</t>
+  </si>
+  <si>
+    <t>(0.039)</t>
+  </si>
+  <si>
+    <t>(0.113)</t>
+  </si>
+  <si>
+    <t>(0.095)</t>
+  </si>
+  <si>
+    <t>-0.015</t>
+  </si>
+  <si>
+    <t>0.083</t>
+  </si>
+  <si>
+    <t>0.041</t>
+  </si>
+  <si>
+    <t>-0.003</t>
+  </si>
+  <si>
+    <t>-0.164</t>
+  </si>
+  <si>
+    <t>-0.055</t>
+  </si>
+  <si>
+    <t>(0.094)</t>
+  </si>
+  <si>
+    <t>(0.089)</t>
+  </si>
+  <si>
+    <t>(0.090)</t>
+  </si>
+  <si>
+    <t>0.113</t>
+  </si>
+  <si>
+    <t>0.164</t>
+  </si>
+  <si>
+    <t>-0.049</t>
+  </si>
+  <si>
+    <t>0.010</t>
+  </si>
+  <si>
+    <t>(0.200)</t>
+  </si>
+  <si>
+    <t>(0.176)</t>
+  </si>
+  <si>
+    <t>(0.217)</t>
+  </si>
+  <si>
+    <t>(0.133)</t>
+  </si>
+  <si>
+    <t>-0.017</t>
+  </si>
+  <si>
+    <t>0.009</t>
+  </si>
+  <si>
+    <t>8.563</t>
+  </si>
+  <si>
+    <t>-0.409</t>
+  </si>
+  <si>
+    <t>15.714</t>
+  </si>
+  <si>
+    <t>15.282</t>
+  </si>
+  <si>
+    <t>15.322</t>
+  </si>
+  <si>
+    <t>-4.413</t>
+  </si>
+  <si>
+    <t>-1.580</t>
+  </si>
+  <si>
+    <t>(8.250)</t>
+  </si>
+  <si>
+    <t>(2.293)</t>
+  </si>
+  <si>
+    <t>(8.926)</t>
+  </si>
+  <si>
+    <t>(11.054)</t>
+  </si>
+  <si>
+    <t>(11.350)</t>
+  </si>
+  <si>
+    <t>(6.031)</t>
+  </si>
+  <si>
+    <t>(5.886)</t>
+  </si>
+  <si>
+    <t>-0.029</t>
+  </si>
+  <si>
+    <t>(0.014)</t>
+  </si>
+  <si>
+    <t>-0.058</t>
+  </si>
+  <si>
+    <t>-0.065</t>
+  </si>
+  <si>
+    <t>-0.022</t>
+  </si>
+  <si>
+    <t>(0.043)</t>
+  </si>
+  <si>
+    <t>(0.375)</t>
+  </si>
+  <si>
+    <t>(0.391)</t>
+  </si>
+  <si>
+    <t>(0.389)</t>
+  </si>
+  <si>
+    <t>(0.073)</t>
+  </si>
+  <si>
+    <t>(0.084)</t>
+  </si>
+  <si>
+    <t>(0.066)</t>
+  </si>
+  <si>
+    <t>(0.093)</t>
+  </si>
+  <si>
+    <t>(0.086)</t>
+  </si>
+  <si>
+    <t>(0.109)</t>
+  </si>
+  <si>
+    <t>(0.110)</t>
+  </si>
+  <si>
+    <t>0.149</t>
+  </si>
+  <si>
+    <t>-0.260</t>
+  </si>
+  <si>
+    <t>-0.097</t>
+  </si>
+  <si>
+    <t>-0.115</t>
+  </si>
+  <si>
+    <t>(0.104)</t>
+  </si>
+  <si>
+    <t>(0.141)</t>
+  </si>
+  <si>
+    <t>0.043</t>
+  </si>
+  <si>
+    <t>0.024</t>
+  </si>
+  <si>
+    <t>(0.186)</t>
+  </si>
+  <si>
+    <t>(0.254)</t>
+  </si>
+  <si>
+    <t>(0.212)</t>
+  </si>
+  <si>
+    <t>(0.216)</t>
+  </si>
+  <si>
+    <t>(0.273)</t>
+  </si>
+  <si>
+    <t>(0.275)</t>
+  </si>
+  <si>
+    <t>(0.422)</t>
+  </si>
+  <si>
+    <t>(0.328)</t>
+  </si>
+  <si>
+    <t>(0.333)</t>
+  </si>
+  <si>
+    <t>(0.442)</t>
+  </si>
+  <si>
+    <t>(0.444)</t>
+  </si>
+  <si>
+    <t>0.123</t>
+  </si>
+  <si>
+    <t>0.346</t>
+  </si>
+  <si>
+    <t>(0.326)</t>
+  </si>
+  <si>
+    <t>(0.189)</t>
+  </si>
+  <si>
+    <t>(0.187)</t>
+  </si>
+  <si>
+    <t>-0.188</t>
+  </si>
+  <si>
+    <t>-0.037</t>
+  </si>
+  <si>
+    <t>0.075</t>
+  </si>
+  <si>
+    <t>-0.683</t>
+  </si>
+  <si>
+    <t>-0.466</t>
+  </si>
+  <si>
+    <t>(0.411)</t>
+  </si>
+  <si>
+    <t>(0.474)</t>
+  </si>
+  <si>
+    <t>(0.481)</t>
+  </si>
+  <si>
+    <t>(0.355)</t>
+  </si>
+  <si>
+    <t>(0.322)</t>
+  </si>
+  <si>
+    <t>(0.361)</t>
+  </si>
+  <si>
+    <t>(0.291)</t>
+  </si>
+  <si>
+    <t>(0.314)</t>
+  </si>
+  <si>
+    <t>(0.335)</t>
+  </si>
+  <si>
+    <t>(0.351)</t>
+  </si>
+  <si>
+    <t>-0.020</t>
+  </si>
+  <si>
+    <t>-1.397</t>
+  </si>
+  <si>
+    <t>-1.499</t>
+  </si>
+  <si>
+    <t>1.121</t>
+  </si>
+  <si>
+    <t>1.194</t>
+  </si>
+  <si>
+    <t>(1.021)</t>
+  </si>
+  <si>
+    <t>(1.019)</t>
+  </si>
+  <si>
+    <t>(0.693)</t>
+  </si>
+  <si>
+    <t>(0.649)</t>
+  </si>
+  <si>
+    <t>-0.033</t>
+  </si>
+  <si>
+    <t>1.450</t>
+  </si>
+  <si>
+    <t>1.229</t>
+  </si>
+  <si>
+    <t>(0.973)</t>
+  </si>
+  <si>
+    <t>(0.983)</t>
+  </si>
+  <si>
+    <t>(1.663)</t>
+  </si>
+  <si>
+    <t>(1.662)</t>
+  </si>
+  <si>
+    <t>(1.750)</t>
+  </si>
+  <si>
+    <t>(1.655)</t>
+  </si>
+  <si>
+    <t>(1.503)</t>
+  </si>
+  <si>
+    <t>3842949</t>
+  </si>
+  <si>
+    <t>3830289</t>
+  </si>
+  <si>
+    <t>0.028</t>
+  </si>
+  <si>
+    <t>0.656</t>
+  </si>
+  <si>
+    <t>0.750</t>
+  </si>
+  <si>
+    <t>0.670</t>
+  </si>
+  <si>
+    <t>0.671</t>
+  </si>
+  <si>
+    <t>0.231</t>
+  </si>
+  <si>
+    <t>0.459</t>
+  </si>
+  <si>
+    <t>0.606</t>
+  </si>
+  <si>
+    <t>0.479</t>
+  </si>
+  <si>
+    <t>0.230</t>
+  </si>
+  <si>
+    <t>0.458</t>
+  </si>
+  <si>
+    <t>0.478</t>
+  </si>
+  <si>
+    <t>4651</t>
+  </si>
+  <si>
+    <t>51</t>
   </si>
 </sst>
 </file>
@@ -4131,7 +4750,3180 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B0CA3D-02E4-4468-B54B-7FC1E729C28D}">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D2CB8E-4136-4F95-BA0D-D5F847CD1836}">
+  <dimension ref="A1:H72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>858</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED785CC2-24DF-48DB-99B0-D704E19C7C73}">
+  <dimension ref="A1:G81"/>
+  <sheetViews>
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
@@ -4168,1548 +7960,6 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED785CC2-24DF-48DB-99B0-D704E19C7C73}">
-  <dimension ref="A1:G81"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="8.77734375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
         <v>406</v>
       </c>
       <c r="C2" s="1" t="s">
